--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value217.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value217.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.140850094022398</v>
+        <v>1.488079071044922</v>
       </c>
       <c r="B1">
-        <v>1.485572997703299</v>
+        <v>3.173280954360962</v>
       </c>
       <c r="C1">
-        <v>1.547041802803073</v>
+        <v>5.258664131164551</v>
       </c>
       <c r="D1">
-        <v>1.645146013796025</v>
+        <v>1.550381898880005</v>
       </c>
       <c r="E1">
-        <v>1.962110989464425</v>
+        <v>0.8201225399971008</v>
       </c>
     </row>
   </sheetData>
